--- a/results/df-five-scores.xlsx
+++ b/results/df-five-scores.xlsx
@@ -365,27 +365,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ML3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ML5</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ML2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ML1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ML4</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ML3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ML2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ML1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ML5</t>
         </is>
       </c>
     </row>
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.7180895458444897</v>
+        <v>0.37860810547924</v>
       </c>
       <c r="C2">
-        <v>0.9471794628042387</v>
+        <v>0.6054630982421287</v>
       </c>
       <c r="D2">
-        <v>0.883587232823279</v>
+        <v>0.4398335349144496</v>
       </c>
       <c r="E2">
-        <v>0.7634234890676924</v>
+        <v>0.5169148237810761</v>
       </c>
       <c r="F2">
-        <v>0.2686459068632295</v>
+        <v>0.3941816894808592</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4514531053161297</v>
+        <v>0.1374996930512995</v>
       </c>
       <c r="C3">
-        <v>0.451805439652944</v>
+        <v>0.167962452359574</v>
       </c>
       <c r="D3">
-        <v>0.8256810492230599</v>
+        <v>0.1735878432854467</v>
       </c>
       <c r="E3">
-        <v>0.8877910772393439</v>
+        <v>0.8503784878760169</v>
       </c>
       <c r="F3">
-        <v>0.3345355515831426</v>
+        <v>0.3456189962439017</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7249451410971303</v>
+        <v>0.4238036002360227</v>
       </c>
       <c r="C4">
-        <v>0.9538644412538156</v>
+        <v>0.6233491942818576</v>
       </c>
       <c r="D4">
-        <v>0.8199021660562208</v>
+        <v>0.513843161594323</v>
       </c>
       <c r="E4">
-        <v>0.9546775975388132</v>
+        <v>0.6639955978161501</v>
       </c>
       <c r="F4">
-        <v>0.2823771352030169</v>
+        <v>0.4389020612811098</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5306486422187154</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.006983021973441856</v>
+        <v>0.002252355435700771</v>
       </c>
       <c r="D5">
-        <v>0.7361201049089476</v>
+        <v>0.1151603776093063</v>
       </c>
       <c r="E5">
-        <v>0.8464063285225165</v>
+        <v>0.9899717593177034</v>
       </c>
       <c r="F5">
-        <v>0.3454024701813137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.5745546071103607</v>
+        <v>0.215702034261702</v>
       </c>
       <c r="C6">
-        <v>0.5654467503400457</v>
+        <v>0.204107962069363</v>
       </c>
       <c r="D6">
-        <v>0.5808396571098221</v>
+        <v>0.4847073028764705</v>
       </c>
       <c r="E6">
-        <v>0.7953093312965301</v>
+        <v>0.7011007892548125</v>
       </c>
       <c r="F6">
-        <v>0.3850819995803583</v>
+        <v>0.2276693341145948</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.4949341747857009</v>
+        <v>0.08900232835183163</v>
       </c>
       <c r="C7">
-        <v>0.7614084820170408</v>
+        <v>0.1645338754891485</v>
       </c>
       <c r="D7">
-        <v>0.7931199561183232</v>
+        <v>0.2832823480296564</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3454895602160054</v>
+        <v>0.1961306655599404</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7928975423022673</v>
+        <v>0.3093180729486195</v>
       </c>
       <c r="C8">
-        <v>0.9041149825907661</v>
+        <v>0.6844461019025947</v>
       </c>
       <c r="D8">
-        <v>0.887661842522509</v>
+        <v>0.4443813812544071</v>
       </c>
       <c r="E8">
-        <v>0.6709821532522321</v>
+        <v>0.472057968262336</v>
       </c>
       <c r="F8">
-        <v>0.1622302338539469</v>
+        <v>0.3025271873449032</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.5947537572484442</v>
+        <v>0.08511927867502257</v>
       </c>
       <c r="C9">
-        <v>0.6138423610532964</v>
+        <v>0.1758744175001936</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.8500887431023124</v>
+        <v>0.7536284139039488</v>
       </c>
       <c r="F9">
-        <v>0.2507167496506863</v>
+        <v>0.1800460246538417</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.8890768528944868</v>
+        <v>0.332389631708566</v>
       </c>
       <c r="C10">
-        <v>0.8966560311504216</v>
+        <v>0.6862942233977999</v>
       </c>
       <c r="D10">
-        <v>0.7857610492849423</v>
+        <v>0.5700352398587129</v>
       </c>
       <c r="E10">
-        <v>0.5386932602935377</v>
+        <v>0.348112878379525</v>
       </c>
       <c r="F10">
-        <v>0.1966478556879807</v>
+        <v>0.1540055389176266</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.9087831956879205</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9775723983360852</v>
+        <v>0.4081622990211214</v>
       </c>
       <c r="D11">
-        <v>0.8953105482298027</v>
+        <v>0.6014436151565805</v>
       </c>
       <c r="E11">
-        <v>0.9581536041576465</v>
+        <v>0.4777808154990012</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1743640335817195</v>
       </c>
     </row>
     <row r="12">
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4234257304579915</v>
+        <v>0.1477545930019207</v>
       </c>
       <c r="C12">
-        <v>0.8608245987037939</v>
+        <v>0.3914328662551107</v>
       </c>
       <c r="D12">
-        <v>0.9063279019632731</v>
+        <v>0.2275245166450688</v>
       </c>
       <c r="E12">
-        <v>0.7126247674428061</v>
+        <v>0.5740804420259595</v>
       </c>
       <c r="F12">
-        <v>0.1833658099843105</v>
+        <v>0.5879489798367857</v>
       </c>
     </row>
     <row r="13">
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.7592854735066161</v>
+        <v>0.3999182024227658</v>
       </c>
       <c r="C13">
-        <v>0.848475359788303</v>
+        <v>0.4990248681285047</v>
       </c>
       <c r="D13">
-        <v>0.8241884945554521</v>
+        <v>0.4715324493235238</v>
       </c>
       <c r="E13">
-        <v>0.6369286738670679</v>
+        <v>0.4278911701172217</v>
       </c>
       <c r="F13">
-        <v>0.3784255910036735</v>
+        <v>0.2327401648041904</v>
       </c>
     </row>
     <row r="14">
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.9581418637420921</v>
+        <v>0.3240012589151352</v>
       </c>
       <c r="C14">
-        <v>0.9458166907811915</v>
+        <v>0.9013835985839157</v>
       </c>
       <c r="D14">
-        <v>0.9287170951482461</v>
+        <v>0.501580903318618</v>
       </c>
       <c r="E14">
-        <v>0.6682193698837203</v>
+        <v>0.4537853914681756</v>
       </c>
       <c r="F14">
-        <v>0.03748433450164374</v>
+        <v>0.2244257712409631</v>
       </c>
     </row>
     <row r="15">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.4853457823356224</v>
+        <v>0.02214741325687635</v>
       </c>
       <c r="C15">
-        <v>0.106185798951067</v>
+        <v>0.06070090218618214</v>
       </c>
       <c r="D15">
-        <v>0.8824535425406396</v>
+        <v>0.005798361109362105</v>
       </c>
       <c r="E15">
-        <v>0.8552723087596289</v>
+        <v>0.9661084885977459</v>
       </c>
       <c r="F15">
-        <v>0.3229754543558596</v>
+        <v>0.1256519970519421</v>
       </c>
     </row>
     <row r="16">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.5894446395927322</v>
+        <v>0.2929136248849009</v>
       </c>
       <c r="C16">
-        <v>0.8036041288591692</v>
+        <v>0.3558187756388855</v>
       </c>
       <c r="D16">
-        <v>0.540040392230267</v>
+        <v>0.6239621852513133</v>
       </c>
       <c r="E16">
-        <v>0.9169945377806743</v>
+        <v>0.708191628235378</v>
       </c>
       <c r="F16">
-        <v>0.3318525675956157</v>
+        <v>0.3918664099074576</v>
       </c>
     </row>
     <row r="17">
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.7962028190152029</v>
+        <v>0.4766704329092389</v>
       </c>
       <c r="C17">
-        <v>0.9091915080091327</v>
+        <v>0.5061929402201787</v>
       </c>
       <c r="D17">
-        <v>0.5914171770205003</v>
+        <v>0.727603233245901</v>
       </c>
       <c r="E17">
-        <v>0.838485023893031</v>
+        <v>0.5509206960866621</v>
       </c>
       <c r="F17">
-        <v>0.4217600265486122</v>
+        <v>0.2510256000460155</v>
       </c>
     </row>
     <row r="18">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.9338632910695532</v>
+        <v>0.8870157516400352</v>
       </c>
       <c r="C18">
-        <v>0.9863501748813739</v>
+        <v>0.5310671660662611</v>
       </c>
       <c r="D18">
-        <v>0.8940652644730955</v>
+        <v>0.605318646122783</v>
       </c>
       <c r="E18">
-        <v>0.9508370673005547</v>
+        <v>0.5049481696481608</v>
       </c>
       <c r="F18">
-        <v>0.8080736039084056</v>
+        <v>0.1951674922477848</v>
       </c>
     </row>
     <row r="19">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.7957377337719244</v>
+        <v>0.3016676406506052</v>
       </c>
       <c r="C19">
-        <v>0.8329563348665035</v>
+        <v>0.5951416512261936</v>
       </c>
       <c r="D19">
-        <v>0.6173187348305432</v>
+        <v>0.6595111317983502</v>
       </c>
       <c r="E19">
-        <v>0.8183406951921071</v>
+        <v>0.6136773804535081</v>
       </c>
       <c r="F19">
-        <v>0.1983815609761743</v>
+        <v>0.2515738801294872</v>
       </c>
     </row>
     <row r="20">
@@ -792,19 +792,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.08929942417124334</v>
       </c>
       <c r="C20">
-        <v>0.9376933368921523</v>
+        <v>0.06099100307554368</v>
       </c>
       <c r="D20">
-        <v>0.8224768869088507</v>
+        <v>0.1345893110940799</v>
       </c>
       <c r="E20">
-        <v>0.9226936666941745</v>
+        <v>0.7489241815835165</v>
       </c>
       <c r="F20">
-        <v>0.3023039980618857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.5357064126203996</v>
+        <v>0.01704204529686534</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.04020883123023998</v>
       </c>
       <c r="D21">
-        <v>0.8685153516553078</v>
+        <v>0.00334844095506473</v>
       </c>
       <c r="E21">
-        <v>0.8559805347012711</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.3407127377803487</v>
+        <v>0.01943771407366398</v>
       </c>
     </row>
     <row r="22">
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.8478301553235335</v>
+        <v>0.3694121470196452</v>
       </c>
       <c r="C22">
-        <v>0.8595646865773674</v>
+        <v>0.8157388778551036</v>
       </c>
       <c r="D22">
-        <v>0.9972345653506967</v>
+        <v>0.3815373101559206</v>
       </c>
       <c r="E22">
-        <v>0.9969643676189763</v>
+        <v>0.7534731314217225</v>
       </c>
       <c r="F22">
-        <v>0.114117622979366</v>
+        <v>0.365444888750621</v>
       </c>
     </row>
     <row r="23">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.8021826596180517</v>
+        <v>0.3663075935433198</v>
       </c>
       <c r="C23">
-        <v>0.7676978377098264</v>
+        <v>0.5092059063090556</v>
       </c>
       <c r="D23">
-        <v>0.5951194285074031</v>
+        <v>0.6672520940790505</v>
       </c>
       <c r="E23">
-        <v>0.8596281823626256</v>
+        <v>0.6477240416632806</v>
       </c>
       <c r="F23">
-        <v>0.3197843523143971</v>
+        <v>0.1943262334115918</v>
       </c>
     </row>
     <row r="24">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.8711539967829488</v>
+        <v>0.6788833240144442</v>
       </c>
       <c r="C24">
-        <v>0.9522723266717554</v>
+        <v>0.5133104331897724</v>
       </c>
       <c r="D24">
-        <v>0.7439125334944239</v>
+        <v>0.6670191170111786</v>
       </c>
       <c r="E24">
-        <v>0.841057569300108</v>
+        <v>0.4810217401803793</v>
       </c>
       <c r="F24">
-        <v>0.6201949218173555</v>
+        <v>0.2028855381819477</v>
       </c>
     </row>
     <row r="25">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.6774925620922622</v>
+        <v>0.2570996449400474</v>
       </c>
       <c r="C25">
-        <v>0.642121335139668</v>
+        <v>0.2606618198320522</v>
       </c>
       <c r="D25">
-        <v>0.2790582630373717</v>
+        <v>0.8271645984304589</v>
       </c>
       <c r="E25">
-        <v>0.8801981669769126</v>
+        <v>0.7266637131122983</v>
       </c>
       <c r="F25">
-        <v>0.3704583942116981</v>
+        <v>0.1642703575284754</v>
       </c>
     </row>
     <row r="26">
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.7935410137827588</v>
+        <v>0.3225016071042833</v>
       </c>
       <c r="C26">
-        <v>0.8787836433617891</v>
+        <v>0.4987421398758482</v>
       </c>
       <c r="D26">
-        <v>0.3078708500926704</v>
+        <v>0.9431844467959191</v>
       </c>
       <c r="E26">
-        <v>0.8238382188174452</v>
+        <v>0.5860268121421215</v>
       </c>
       <c r="F26">
-        <v>0.2699767209699272</v>
+        <v>0.2116469931199755</v>
       </c>
     </row>
     <row r="27">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.6381095746977777</v>
+        <v>0.3909169092278594</v>
       </c>
       <c r="C27">
-        <v>0.9303176683905298</v>
+        <v>0.4826834361319597</v>
       </c>
       <c r="D27">
-        <v>0.8602699514998019</v>
+        <v>0.4178154235845504</v>
       </c>
       <c r="E27">
-        <v>0.7553443005482967</v>
+        <v>0.510216187373979</v>
       </c>
       <c r="F27">
-        <v>0.3604370313350465</v>
+        <v>0.4239481658454889</v>
       </c>
     </row>
     <row r="28">
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.3523978273503682</v>
+        <v>0.1395316285303666</v>
       </c>
       <c r="C28">
-        <v>0.7072596319561249</v>
+        <v>0.07945423171343025</v>
       </c>
       <c r="D28">
-        <v>0.3915787203271082</v>
+        <v>0.5907108668870076</v>
       </c>
       <c r="E28">
-        <v>0.8806642800492545</v>
+        <v>0.7495124813045958</v>
       </c>
       <c r="F28">
-        <v>0.3609319706175612</v>
+        <v>0.4848277265769483</v>
       </c>
     </row>
     <row r="29">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.7488816007714504</v>
+        <v>0.3749329728563592</v>
       </c>
       <c r="C29">
-        <v>0.8357617684676489</v>
+        <v>0.4639869387716651</v>
       </c>
       <c r="D29">
-        <v>0.8461870357546613</v>
+        <v>0.4348450216997136</v>
       </c>
       <c r="E29">
-        <v>0.5120778764950192</v>
+        <v>0.3322132272591632</v>
       </c>
       <c r="F29">
-        <v>0.3892246436635077</v>
+        <v>0.1961717315185454</v>
       </c>
     </row>
     <row r="30">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.2208778265913654</v>
+        <v>0.1231424830617932</v>
       </c>
       <c r="C30">
-        <v>0.8041313683527472</v>
+        <v>0.1057617039478416</v>
       </c>
       <c r="D30">
-        <v>0.6163001282861581</v>
+        <v>0.3701484461121527</v>
       </c>
       <c r="E30">
-        <v>0.9087372753984355</v>
+        <v>0.7584405909654273</v>
       </c>
       <c r="F30">
-        <v>0.3193237873506372</v>
+        <v>0.7024405075804551</v>
       </c>
     </row>
     <row r="31">
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.8306409543250721</v>
+        <v>0.7075571816932016</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.6035226596531975</v>
       </c>
       <c r="D31">
-        <v>0.9532536070670715</v>
+        <v>0.4946760023992498</v>
       </c>
       <c r="E31">
-        <v>0.9848198514089223</v>
+        <v>0.5902005758247939</v>
       </c>
       <c r="F31">
-        <v>0.5769891190846617</v>
+        <v>0.3537125468895475</v>
       </c>
     </row>
     <row r="32">
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.3171921216683323</v>
+        <v>0.1057521479396167</v>
       </c>
       <c r="C32">
-        <v>0.515274700098179</v>
+        <v>0.07797548950065247</v>
       </c>
       <c r="D32">
-        <v>0.8021284461415169</v>
+        <v>0.1503799197060093</v>
       </c>
       <c r="E32">
-        <v>0.8806797154823149</v>
+        <v>0.8343131984081218</v>
       </c>
       <c r="F32">
-        <v>0.3531634114873132</v>
+        <v>0.4793500051305901</v>
       </c>
     </row>
     <row r="33">
@@ -1078,19 +1078,19 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.6090141999790066</v>
+        <v>0.1879086006493307</v>
       </c>
       <c r="C33">
-        <v>0.7125766065677891</v>
+        <v>0.3036341647311658</v>
       </c>
       <c r="D33">
-        <v>0.6718705798856995</v>
+        <v>0.4571751734861795</v>
       </c>
       <c r="E33">
-        <v>0.5010125000798409</v>
+        <v>0.4133574649520798</v>
       </c>
       <c r="F33">
-        <v>0.3108744437811735</v>
+        <v>0.2207514082056487</v>
       </c>
     </row>
     <row r="34">
@@ -1100,19 +1100,19 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.2961487073081819</v>
+        <v>0.2167232123985194</v>
       </c>
       <c r="C34">
-        <v>0.8858825375310666</v>
+        <v>0.2346967824686141</v>
       </c>
       <c r="D34">
-        <v>0.9139797857779716</v>
+        <v>0.180761450625485</v>
       </c>
       <c r="E34">
-        <v>0.7739227325838667</v>
+        <v>0.5979393731024585</v>
       </c>
       <c r="F34">
-        <v>0.3434404959726362</v>
+        <v>0.6931487461821813</v>
       </c>
     </row>
     <row r="35">
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.2639459176515079</v>
+        <v>0.03053246927454773</v>
       </c>
       <c r="C35">
-        <v>0.3634927348844439</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.8777901186088932</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.8875401994267708</v>
+        <v>0.9133496754058943</v>
       </c>
       <c r="F35">
-        <v>0.3413782014839613</v>
+        <v>0.4546569519572882</v>
       </c>
     </row>
     <row r="36">
@@ -1144,19 +1144,19 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.6880207679075261</v>
+        <v>0.4338049198968876</v>
       </c>
       <c r="C36">
-        <v>0.8548776209007543</v>
+        <v>0.4373218364970234</v>
       </c>
       <c r="D36">
-        <v>0.7212291810318932</v>
+        <v>0.5437347406877751</v>
       </c>
       <c r="E36">
-        <v>0.8667506403253379</v>
+        <v>0.610709022408801</v>
       </c>
       <c r="F36">
-        <v>0.4263165095580852</v>
+        <v>0.3385942414850379</v>
       </c>
     </row>
     <row r="37">
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.6763671266526173</v>
+        <v>0.2678292622464582</v>
       </c>
       <c r="C37">
-        <v>0.5947731409604722</v>
+        <v>0.2595149425888851</v>
       </c>
       <c r="D37">
-        <v>0.4107481808372145</v>
+        <v>0.6971563394202163</v>
       </c>
       <c r="E37">
-        <v>0.8660440436847747</v>
+        <v>0.7303325839378392</v>
       </c>
       <c r="F37">
-        <v>0.3902605011897483</v>
+        <v>0.1533816559037851</v>
       </c>
     </row>
     <row r="38">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.8744920986768581</v>
+        <v>0.5374699926784561</v>
       </c>
       <c r="C38">
-        <v>0.9251956172502707</v>
+        <v>0.5724109765649704</v>
       </c>
       <c r="D38">
-        <v>0.5899310492977906</v>
+        <v>0.7793136478726639</v>
       </c>
       <c r="E38">
-        <v>0.8880241192939844</v>
+        <v>0.5694750332508369</v>
       </c>
       <c r="F38">
-        <v>0.4351454151799859</v>
+        <v>0.209711720122306</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.7585226161437062</v>
+        <v>0.3903587006423346</v>
       </c>
       <c r="C39">
-        <v>0.9083600259621887</v>
+        <v>0.5158772635219858</v>
       </c>
       <c r="D39">
-        <v>0.9128616580168064</v>
+        <v>0.40584770554186</v>
       </c>
       <c r="E39">
-        <v>0.4455526936341758</v>
+        <v>0.250039981392535</v>
       </c>
       <c r="F39">
-        <v>0.3728880419970503</v>
+        <v>0.2233709602612146</v>
       </c>
     </row>
     <row r="40">
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.8845389383665436</v>
+        <v>0.6304536524085928</v>
       </c>
       <c r="C40">
-        <v>0.9898556412241932</v>
+        <v>0.7022505929793724</v>
       </c>
       <c r="D40">
-        <v>0.9426231952698673</v>
+        <v>0.5155364227379119</v>
       </c>
       <c r="E40">
-        <v>0.9468486379048332</v>
+        <v>0.5846068903036332</v>
       </c>
       <c r="F40">
-        <v>0.441357454079294</v>
+        <v>0.317957006286028</v>
       </c>
     </row>
     <row r="41">
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.845259427455041</v>
+        <v>0.340385852010151</v>
       </c>
       <c r="C41">
-        <v>0.8528213199081182</v>
+        <v>0.5549919491277608</v>
       </c>
       <c r="D41">
-        <v>0.8228370678918864</v>
+        <v>0.495217641145805</v>
       </c>
       <c r="E41">
-        <v>0.3689216432537403</v>
+        <v>0.2128874400696618</v>
       </c>
       <c r="F41">
-        <v>0.3091897846682318</v>
+        <v>0.09480932014783443</v>
       </c>
     </row>
     <row r="42">
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.08345668768451665</v>
+        <v>0.1126944077195089</v>
       </c>
       <c r="C42">
-        <v>0.8465991883566967</v>
+        <v>0.09788345592854511</v>
       </c>
       <c r="D42">
-        <v>0.8894296436719389</v>
+        <v>0.08654936204278145</v>
       </c>
       <c r="E42">
-        <v>0.9332250636854608</v>
+        <v>0.7807038972705539</v>
       </c>
       <c r="F42">
-        <v>0.3116994041207943</v>
+        <v>0.8947622555126208</v>
       </c>
     </row>
     <row r="43">
@@ -1298,19 +1298,19 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.8680831588083894</v>
+        <v>0.287819128625246</v>
       </c>
       <c r="C43">
-        <v>0.9002924620658386</v>
+        <v>0.7935075731216946</v>
       </c>
       <c r="D43">
-        <v>0.8509046825878848</v>
+        <v>0.5105633163098777</v>
       </c>
       <c r="E43">
-        <v>0.7401454879916823</v>
+        <v>0.5387133090332767</v>
       </c>
       <c r="F43">
-        <v>0.06467773012688598</v>
+        <v>0.274804894324059</v>
       </c>
     </row>
     <row r="44">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.8905641044002765</v>
+        <v>0.3379922110463368</v>
       </c>
       <c r="C44">
-        <v>0.8466245447578876</v>
+        <v>0.8817607543554251</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.3913375617878093</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.7701940493294157</v>
       </c>
       <c r="F44">
-        <v>0.04174486253452797</v>
+        <v>0.3397379611267418</v>
       </c>
     </row>
     <row r="45">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.6077042736099176</v>
+        <v>0.1302408605823024</v>
       </c>
       <c r="C45">
-        <v>0.6839652837106036</v>
+        <v>0.5414217555084808</v>
       </c>
       <c r="D45">
-        <v>0.8508852189442553</v>
+        <v>0.3073652346070889</v>
       </c>
       <c r="E45">
-        <v>0.9375801755059191</v>
+        <v>0.8264135118508165</v>
       </c>
       <c r="F45">
-        <v>0.06505260125145741</v>
+        <v>0.4250154133313393</v>
       </c>
     </row>
     <row r="46">
@@ -1364,19 +1364,19 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.6781821770997414</v>
+        <v>0.1198682035745439</v>
       </c>
       <c r="C46">
-        <v>0.3745500615888076</v>
+        <v>0.4164201406616568</v>
       </c>
       <c r="D46">
-        <v>0.8935586516902019</v>
+        <v>0.1928317845561923</v>
       </c>
       <c r="E46">
-        <v>0.9209386560914282</v>
+        <v>0.9107150008645785</v>
       </c>
       <c r="F46">
-        <v>0.1656467527681785</v>
+        <v>0.1759571242661456</v>
       </c>
     </row>
     <row r="47">
@@ -1386,19 +1386,19 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.8317320234964153</v>
+        <v>0.3238590739894021</v>
       </c>
       <c r="C47">
-        <v>0.9542469885229681</v>
+        <v>0.7589642759235648</v>
       </c>
       <c r="D47">
-        <v>0.7422315440041986</v>
+        <v>0.6148553207368467</v>
       </c>
       <c r="E47">
-        <v>0.8456909856016082</v>
+        <v>0.5982860487339937</v>
       </c>
       <c r="F47">
-        <v>0.1053353332427327</v>
+        <v>0.3404472815483584</v>
       </c>
     </row>
     <row r="48">
@@ -1408,19 +1408,19 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.5784431333839891</v>
+        <v>0.2625077706061623</v>
       </c>
       <c r="C48">
-        <v>0.9280090526023633</v>
+        <v>0.4931411824171468</v>
       </c>
       <c r="D48">
-        <v>0.8744567063634429</v>
+        <v>0.3598400883527819</v>
       </c>
       <c r="E48">
-        <v>0.6666095610093885</v>
+        <v>0.4756426966936041</v>
       </c>
       <c r="F48">
-        <v>0.2331104112153871</v>
+        <v>0.4707397454703294</v>
       </c>
     </row>
     <row r="49">
@@ -1430,19 +1430,19 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.7476057762570708</v>
+        <v>0.2730120295238055</v>
       </c>
       <c r="C49">
-        <v>0.5629059299443772</v>
+        <v>0.4041477675203857</v>
       </c>
       <c r="D49">
-        <v>0.6920700627346887</v>
+        <v>0.4761084537813239</v>
       </c>
       <c r="E49">
-        <v>0.8374408852530588</v>
+        <v>0.7242298944789988</v>
       </c>
       <c r="F49">
-        <v>0.3151381363818239</v>
+        <v>0.1339781504277696</v>
       </c>
     </row>
     <row r="50">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.5932985188723172</v>
+        <v>0.2320624949043921</v>
       </c>
       <c r="C50">
-        <v>0.7955034860558164</v>
+        <v>0.2524913080024229</v>
       </c>
       <c r="D50">
-        <v>0.4913873342171768</v>
+        <v>0.6398893366428801</v>
       </c>
       <c r="E50">
-        <v>0.5242665939459379</v>
+        <v>0.387336429391719</v>
       </c>
       <c r="F50">
-        <v>0.3743882409936692</v>
+        <v>0.2427295276162471</v>
       </c>
     </row>
     <row r="51">
@@ -1474,19 +1474,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.5682582495089207</v>
+        <v>0.1863431917592368</v>
       </c>
       <c r="C51">
-        <v>0.588641876783921</v>
+        <v>0.1921485327891822</v>
       </c>
       <c r="D51">
-        <v>0.3780856189714716</v>
+        <v>0.6652668886681408</v>
       </c>
       <c r="E51">
-        <v>0.877529005855277</v>
+        <v>0.7671103514926263</v>
       </c>
       <c r="F51">
-        <v>0.34903028137196</v>
+        <v>0.2431336395509409</v>
       </c>
     </row>
     <row r="52">
@@ -1496,19 +1496,19 @@
         </is>
       </c>
       <c r="B52">
+        <v>0.3700990512264346</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="C52">
-        <v>0.9810792772550599</v>
-      </c>
       <c r="D52">
-        <v>0.9288949527657702</v>
+        <v>0.5467960768026011</v>
       </c>
       <c r="E52">
-        <v>0.8556031805079288</v>
+        <v>0.5909761633776248</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.2774554322953927</v>
       </c>
     </row>
     <row r="53">
@@ -1518,19 +1518,19 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.7513866762438913</v>
+        <v>0.3183194858219158</v>
       </c>
       <c r="C53">
-        <v>0.9275367258807796</v>
+        <v>0.6312491649169789</v>
       </c>
       <c r="D53">
-        <v>0.9253690438822545</v>
+        <v>0.3976881672030233</v>
       </c>
       <c r="E53">
-        <v>0.583103177655979</v>
+        <v>0.3872373925475159</v>
       </c>
       <c r="F53">
-        <v>0.2119453184059829</v>
+        <v>0.318036754257141</v>
       </c>
     </row>
     <row r="54">
@@ -1540,19 +1540,19 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.5199191369475686</v>
+        <v>0.150112643480478</v>
       </c>
       <c r="C54">
-        <v>0.6595294324396778</v>
+        <v>0.2093821482464568</v>
       </c>
       <c r="D54">
-        <v>0.8579540148446093</v>
+        <v>0.225770471687149</v>
       </c>
       <c r="E54">
-        <v>0.3413335322229474</v>
+        <v>0.3101053765036838</v>
       </c>
       <c r="F54">
-        <v>0.3560996585806711</v>
+        <v>0.2359801604177216</v>
       </c>
     </row>
     <row r="55">
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.7511114014457969</v>
+        <v>0.6227540638156141</v>
       </c>
       <c r="C55">
-        <v>0.9321693024170571</v>
+        <v>0.5099967048769454</v>
       </c>
       <c r="D55">
-        <v>0.9120853791902477</v>
+        <v>0.4594574195369656</v>
       </c>
       <c r="E55">
-        <v>0.9566365853678274</v>
+        <v>0.6119710371068492</v>
       </c>
       <c r="F55">
-        <v>0.5586700923370473</v>
+        <v>0.3670074785220746</v>
       </c>
     </row>
     <row r="56">
@@ -1584,19 +1584,19 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.5695000747278258</v>
+        <v>0.09967866617435159</v>
       </c>
       <c r="C56">
-        <v>0.2028548902391754</v>
+        <v>0.1459494737541952</v>
       </c>
       <c r="D56">
-        <v>0.8153407916783623</v>
+        <v>0.1455643155131141</v>
       </c>
       <c r="E56">
-        <v>0.8807887612899498</v>
+        <v>0.9314630996666015</v>
       </c>
       <c r="F56">
-        <v>0.3347925855151072</v>
+        <v>0.1061489979652205</v>
       </c>
     </row>
     <row r="57">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.2833425259192716</v>
+        <v>0.1893241263354704</v>
       </c>
       <c r="C57">
-        <v>0.7438214388277015</v>
+        <v>0.128207774228103</v>
       </c>
       <c r="D57">
-        <v>0.8624419813777881</v>
+        <v>0.167379877901918</v>
       </c>
       <c r="E57">
-        <v>0.7923072527711159</v>
+        <v>0.663802681096796</v>
       </c>
       <c r="F57">
-        <v>0.3938134023395741</v>
+        <v>0.6099584859791144</v>
       </c>
     </row>
     <row r="58">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.8855596580768365</v>
+        <v>0.8882750395112022</v>
       </c>
       <c r="C58">
-        <v>0.9809828561090563</v>
+        <v>0.4477779176289458</v>
       </c>
       <c r="D58">
-        <v>0.8274846596724269</v>
+        <v>0.6384372929759447</v>
       </c>
       <c r="E58">
-        <v>0.950018992649353</v>
+        <v>0.5029392371926392</v>
       </c>
       <c r="F58">
-        <v>0.8612563101311376</v>
+        <v>0.2082897462758141</v>
       </c>
     </row>
     <row r="59">
@@ -1650,19 +1650,19 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.8894128191504719</v>
+        <v>0.5684225895050638</v>
       </c>
       <c r="C59">
-        <v>0.9151377545196239</v>
+        <v>0.5486635544640451</v>
       </c>
       <c r="D59">
-        <v>0.5209958256638181</v>
+        <v>0.8474970446694069</v>
       </c>
       <c r="E59">
-        <v>0.9372580021197446</v>
+        <v>0.6026942438035161</v>
       </c>
       <c r="F59">
-        <v>0.4763546934981487</v>
+        <v>0.1870990799881795</v>
       </c>
     </row>
     <row r="60">
@@ -1672,19 +1672,19 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.596349051851228</v>
+        <v>0.09706043702595729</v>
       </c>
       <c r="C60">
-        <v>0.6899910761659928</v>
+        <v>0.35146101151432</v>
       </c>
       <c r="D60">
-        <v>0.3416579812693152</v>
+        <v>0.7355076168920529</v>
       </c>
       <c r="E60">
-        <v>0.8658023691107247</v>
+        <v>0.7534262397176739</v>
       </c>
       <c r="F60">
-        <v>0.1490551967238661</v>
+        <v>0.3076642662344015</v>
       </c>
     </row>
     <row r="61">
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.838996079959373</v>
+        <v>0.5096463975090511</v>
       </c>
       <c r="C61">
-        <v>0.9704731248732887</v>
+        <v>0.6850904522550292</v>
       </c>
       <c r="D61">
-        <v>0.9155444968055927</v>
+        <v>0.4929723360336532</v>
       </c>
       <c r="E61">
-        <v>0.8283775980821496</v>
+        <v>0.5253680844751781</v>
       </c>
       <c r="F61">
-        <v>0.343045440317634</v>
+        <v>0.3211900574852541</v>
       </c>
     </row>
     <row r="62">
@@ -1716,19 +1716,19 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.6039216821900633</v>
+        <v>0.1503741314603009</v>
       </c>
       <c r="C62">
-        <v>0.4448042915986104</v>
+        <v>0.181300446088326</v>
       </c>
       <c r="D62">
-        <v>0.4735005847242132</v>
+        <v>0.5439766258941465</v>
       </c>
       <c r="E62">
-        <v>0.8447482142551268</v>
+        <v>0.79743832628943</v>
       </c>
       <c r="F62">
-        <v>0.3382645904228616</v>
+        <v>0.1420598781496164</v>
       </c>
     </row>
     <row r="63">
@@ -1738,19 +1738,19 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.6046615715157808</v>
+        <v>0.2354626739934722</v>
       </c>
       <c r="C63">
-        <v>0.6460391909357945</v>
+        <v>0.2505109069448988</v>
       </c>
       <c r="D63">
-        <v>0.4979868460921483</v>
+        <v>0.6003432772618731</v>
       </c>
       <c r="E63">
-        <v>0.797650514974929</v>
+        <v>0.6691679981443229</v>
       </c>
       <c r="F63">
-        <v>0.3664447075180248</v>
+        <v>0.2386360545424719</v>
       </c>
     </row>
     <row r="64">
@@ -1760,19 +1760,19 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.7890755489934701</v>
+        <v>0.4212834121838566</v>
       </c>
       <c r="C64">
-        <v>0.9335840904237551</v>
+        <v>0.6937824745143233</v>
       </c>
       <c r="D64">
-        <v>0.8461573598523074</v>
+        <v>0.5138067738594548</v>
       </c>
       <c r="E64">
-        <v>0.9595708525522517</v>
+        <v>0.676172317885387</v>
       </c>
       <c r="F64">
-        <v>0.237418995366967</v>
+        <v>0.3910655783632627</v>
       </c>
     </row>
     <row r="65">
@@ -1782,19 +1782,19 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.6412440278550161</v>
+        <v>0.4061676762177369</v>
       </c>
       <c r="C65">
-        <v>0.7270322532597613</v>
+        <v>0.3454110091824543</v>
       </c>
       <c r="D65">
-        <v>0.7800536305528977</v>
+        <v>0.4249709575346669</v>
       </c>
       <c r="E65">
-        <v>0.8919878163675477</v>
+        <v>0.6825303026795034</v>
       </c>
       <c r="F65">
-        <v>0.4670545582304759</v>
+        <v>0.3144486520249263</v>
       </c>
     </row>
     <row r="66">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.8177123818074138</v>
+        <v>0.3884966918231512</v>
       </c>
       <c r="C66">
-        <v>0.9362744283116794</v>
+        <v>0.67039253953159</v>
       </c>
       <c r="D66">
-        <v>0.8905251322717528</v>
+        <v>0.4725262246732364</v>
       </c>
       <c r="E66">
-        <v>0.6655326455286829</v>
+        <v>0.4322721652501644</v>
       </c>
       <c r="F66">
-        <v>0.2487359569177729</v>
+        <v>0.2820519891192763</v>
       </c>
     </row>
     <row r="67">
@@ -1826,19 +1826,19 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.3095224878116759</v>
+        <v>0.1345409143808791</v>
       </c>
       <c r="C67">
-        <v>0.4393319432750994</v>
+        <v>0.02200615646268134</v>
       </c>
       <c r="D67">
-        <v>0.8939809899888681</v>
+        <v>0.04370690528901593</v>
       </c>
       <c r="E67">
-        <v>0.8725345870355931</v>
+        <v>0.8445558376414979</v>
       </c>
       <c r="F67">
-        <v>0.4272708212251678</v>
+        <v>0.441536857056563</v>
       </c>
     </row>
     <row r="68">
@@ -1848,19 +1848,19 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.5218973665049129</v>
+        <v>0.1849786713066997</v>
       </c>
       <c r="C68">
-        <v>0.652755703822576</v>
+        <v>0.2077735030918338</v>
       </c>
       <c r="D68">
-        <v>0.4251243479524838</v>
+        <v>0.6261743685293989</v>
       </c>
       <c r="E68">
-        <v>0.8875575368898329</v>
+        <v>0.7586386562948208</v>
       </c>
       <c r="F68">
-        <v>0.3313729893697001</v>
+        <v>0.3316680160820311</v>
       </c>
     </row>
     <row r="69">
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.8270397601190881</v>
+        <v>0.4060376717574559</v>
       </c>
       <c r="C69">
-        <v>0.8959244988065571</v>
+        <v>0.5745794926220353</v>
       </c>
       <c r="D69">
-        <v>0.8553280724435529</v>
+        <v>0.4877154742285955</v>
       </c>
       <c r="E69">
-        <v>0.5173431702763052</v>
+        <v>0.3088705813145832</v>
       </c>
       <c r="F69">
-        <v>0.3449107790569283</v>
+        <v>0.1793232598620332</v>
       </c>
     </row>
     <row r="70">
@@ -1892,19 +1892,19 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.6246948571657702</v>
+        <v>0.08497333083415525</v>
       </c>
       <c r="C70">
-        <v>0.372996545049257</v>
+        <v>0.312896151083146</v>
       </c>
       <c r="D70">
-        <v>0.7553424253293692</v>
+        <v>0.2799520096964024</v>
       </c>
       <c r="E70">
-        <v>0.8596766456568691</v>
+        <v>0.8639302350655507</v>
       </c>
       <c r="F70">
-        <v>0.1994058111552987</v>
+        <v>0.1674794941168471</v>
       </c>
     </row>
     <row r="71">
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.4828164001479559</v>
+        <v>0.2857915354196733</v>
       </c>
       <c r="C71">
-        <v>0.9636173121603081</v>
+        <v>0.3924377365976181</v>
       </c>
       <c r="D71">
-        <v>0.616029624154314</v>
+        <v>0.565761709887228</v>
       </c>
       <c r="E71">
-        <v>0.9403056056976249</v>
+        <v>0.6851590727509931</v>
       </c>
       <c r="F71">
-        <v>0.2849949200504784</v>
+        <v>0.5981917852928398</v>
       </c>
     </row>
     <row r="72">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.3033090533708254</v>
+        <v>0.2523522082434229</v>
       </c>
       <c r="C72">
-        <v>0.9710488804940102</v>
+        <v>0.2982500285848334</v>
       </c>
       <c r="D72">
-        <v>0.9427774772176215</v>
+        <v>0.194631056567987</v>
       </c>
       <c r="E72">
-        <v>0.8117196582615128</v>
+        <v>0.5945983133642823</v>
       </c>
       <c r="F72">
-        <v>0.3279683566779791</v>
+        <v>0.7555544794136481</v>
       </c>
     </row>
     <row r="73">
@@ -1958,19 +1958,19 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.8049918713726668</v>
+        <v>0.3070683902740563</v>
       </c>
       <c r="C73">
-        <v>0.8723739320055802</v>
+        <v>0.6430467353151093</v>
       </c>
       <c r="D73">
-        <v>0.7581626352655083</v>
+        <v>0.5518087855954398</v>
       </c>
       <c r="E73">
-        <v>0.7086952010825123</v>
+        <v>0.5101837753267817</v>
       </c>
       <c r="F73">
-        <v>0.1831632202643398</v>
+        <v>0.259665039330444</v>
       </c>
     </row>
     <row r="74">
@@ -1980,19 +1980,19 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.7789161010027976</v>
+        <v>0.290336235004472</v>
       </c>
       <c r="C74">
-        <v>0.7860479474847403</v>
+        <v>0.5499790669724742</v>
       </c>
       <c r="D74">
-        <v>0.7830719345358124</v>
+        <v>0.4828774060466415</v>
       </c>
       <c r="E74">
-        <v>0.6367233957015095</v>
+        <v>0.4802102259937983</v>
       </c>
       <c r="F74">
-        <v>0.2407680711765946</v>
+        <v>0.2020751201876781</v>
       </c>
     </row>
   </sheetData>
